--- a/Documents/DIYANA/DIGESTION/RB & IQC/RB & IQC POW 231024.xlsx
+++ b/Documents/DIYANA/DIGESTION/RB & IQC/RB & IQC POW 231024.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.147\Users\gunasama\Documents\DIYANA\DIGESTION\RB &amp; IQC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JOE-PC\Users\Gunasama\Documents\DIYANA\DIGESTION\RB &amp; IQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFC840B-FB05-4544-8672-5245FF3F9A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="BERAT BERSIH SPL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -416,7 +417,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -809,26 +810,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -836,125 +954,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="16"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2448,11 +2449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2467,98 +2468,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="53" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="79" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="78" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2585,30 +2586,30 @@
       <c r="B11" s="24">
         <v>1123090</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="47"/>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="56" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="78"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -2617,26 +2618,26 @@
       <c r="B14" s="25">
         <v>4122020</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2652,11 +2653,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2664,35 +2665,35 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="42" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="12" t="s">
         <v>20</v>
       </c>
@@ -2702,9 +2703,9 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="39"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="9"/>
       <c r="E22" s="6"/>
       <c r="F22" s="1"/>
@@ -2712,53 +2713,53 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="36" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="1"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="40" t="s">
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="48">
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="59">
         <v>50.006</v>
       </c>
-      <c r="H24" s="49"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="42" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="12" t="s">
         <v>20</v>
       </c>
@@ -2768,9 +2769,9 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="9"/>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -2778,53 +2779,53 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="36" t="s">
+      <c r="B28" s="47"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="1"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="45" t="s">
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="58">
-        <v>50.063000000000002</v>
-      </c>
-      <c r="H29" s="59"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="63">
+        <v>50.322000000000003</v>
+      </c>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="42" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="51"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="12" t="s">
         <v>20</v>
       </c>
@@ -2834,9 +2835,9 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="39"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="9"/>
       <c r="E32" s="6"/>
       <c r="F32" s="1"/>
@@ -2844,34 +2845,34 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="36" t="s">
+      <c r="B33" s="47"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="1"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="45" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="48">
-        <v>50.030999999999999</v>
-      </c>
-      <c r="H34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="59">
+        <v>50</v>
+      </c>
+      <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -2885,39 +2886,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="A15:A16"/>
@@ -2934,6 +2902,39 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C6:H6"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2945,7 +2946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
